--- a/restest.xlsx
+++ b/restest.xlsx
@@ -3782,16 +3782,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>669131</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50006</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30956</xdr:rowOff>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>669131</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50006</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4532,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KW28"/>
   <sheetViews>
-    <sheetView topLeftCell="KI12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="KT24" sqref="KT24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21564,8 +21564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22866,6 +22866,12 @@
         <v>30.536090595066156</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="D28" s="7">
+        <f>SUM(D2:D26)</f>
+        <v>11.045603129515035</v>
+      </c>
+    </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>53</v>

--- a/restest.xlsx
+++ b/restest.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="restest" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$H$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">restest!$A$1:$JE$28</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="356">
   <si>
     <t>CAT</t>
   </si>
@@ -2348,12 +2349,18 @@
            min_samples_split=2, min_weight_fraction_leaf=0.0,_x000D_
            n_estimators=30, n_jobs=1, oob_score=False, random_state=None,_x000D_
            verbose=0, warm_start=False)</t>
+  </si>
+  <si>
+    <t>FIXE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2671,7 +2678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2786,8 +2793,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2830,8 +2852,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2842,8 +2865,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2873,6 +2900,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Milliers" xfId="42" builtinId="3"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -2967,7 +2995,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$N$2:$N$27</c:f>
+              <c:f>Feuil1!$O$2:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3782,13 +3810,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>50006</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>50006</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30956</xdr:rowOff>
@@ -3822,7 +3850,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Robin Costé" refreshedDate="42687.56017986111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G27" sheet="Feuil1"/>
+    <worksheetSource ref="A1:H27" sheet="Feuil1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="numero rehcercheh" numFmtId="0">
@@ -4533,7 +4561,7 @@
   <dimension ref="A1:KW28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21562,20 +21590,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="7"/>
+    <col min="4" max="4" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -21585,40 +21614,43 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>316</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>317</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>318</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <f>B1</f>
         <v>titre</v>
       </c>
-      <c r="M1" t="str">
-        <f t="shared" ref="M1:P16" si="0">C1</f>
+      <c r="N1" t="str">
+        <f>C1</f>
         <v>index</v>
       </c>
-      <c r="N1" t="str">
-        <f t="shared" si="0"/>
+      <c r="O1" t="str">
+        <f t="shared" ref="O1:Q1" si="0">E1</f>
         <v>min</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <f t="shared" si="0"/>
         <v>mean</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <f t="shared" si="0"/>
         <v>max</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>27</v>
       </c>
@@ -21626,47 +21658,50 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>HLOOKUP(D2,restest!2:28,A2,0)</f>
+        <f>HLOOKUP(E2,restest!2:28,A2,0)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7">
         <f>MIN(restest!2:2)</f>
         <v>4.3979508657341899</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>AVERAGE(restest!2:2)</f>
         <v>49.128844345068771</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>MAX(restest!2:2)</f>
         <v>489.53372709408399</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>_xlfn.STDEV.S(restest!2:2)</f>
         <v>81.037019198167513</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:M27" si="1">B2</f>
+      <c r="M2" t="str">
+        <f>B2</f>
         <v>CAT</v>
       </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
+      <c r="N2">
+        <f>C2</f>
         <v>2</v>
       </c>
-      <c r="N2">
-        <f>LOG(D2)</f>
+      <c r="O2">
+        <f>LOG(E2)</f>
         <v>0.64325037307849775</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:P2" si="2">LOG(E2)</f>
+      <c r="P2">
+        <f t="shared" ref="P2:Q2" si="1">LOG(F2)</f>
         <v>1.6913365483712846</v>
       </c>
-      <c r="P2">
-        <f t="shared" si="2"/>
+      <c r="Q2">
+        <f t="shared" si="1"/>
         <v>2.6897826184808529</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>26</v>
       </c>
@@ -21674,47 +21709,50 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>HLOOKUP(D3,restest!3:29,A3,0)</f>
+        <f>HLOOKUP(E3,restest!3:29,A3,0)</f>
         <v>265</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="7">
         <f>MIN(restest!3:3)</f>
         <v>5.4012565216324499E-5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>AVERAGE(restest!3:3)</f>
         <v>6.2025545115208469E-5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>MAX(restest!3:3)</f>
         <v>1.04474615268923E-4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>_xlfn.STDEV.S(restest!3:3)</f>
         <v>8.4614579757983988E-6</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
+      <c r="M3" t="str">
+        <f>B3</f>
         <v>CMS</v>
       </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
+      <c r="N3">
+        <f>C3</f>
         <v>265</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N27" si="3">LOG(D3)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O27" si="2">LOG(E3)</f>
         <v>-4.2675051963007506</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O27" si="4">LOG(E3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P27" si="3">LOG(F3)</f>
         <v>-4.2074294102159833</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P27" si="5">LOG(F3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q27" si="4">LOG(G3)</f>
         <v>-3.9809892194845653</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>25</v>
       </c>
@@ -21722,47 +21760,50 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>HLOOKUP(D4,restest!4:30,A4,0)</f>
+        <f>HLOOKUP(E4,restest!4:30,A4,0)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7">
         <f>MIN(restest!4:4)</f>
         <v>1.99005112744645E-5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>AVERAGE(restest!4:4)</f>
         <v>1.2347724803057246E-4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>MAX(restest!4:4)</f>
         <v>2.3925449306304701E-4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>_xlfn.STDEV.S(restest!4:4)</f>
         <v>3.9567516490736318E-5</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
+      <c r="M4" t="str">
+        <f>B4</f>
         <v>Crises</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
+      <c r="N4">
+        <f>C4</f>
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>-4.7011357657598252</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="3"/>
-        <v>-4.7011357657598252</v>
-      </c>
-      <c r="O4">
+        <v>-3.908413058315753</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="4"/>
-        <v>-3.908413058315753</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
         <v>-3.6211398976716382</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>24</v>
       </c>
@@ -21770,47 +21811,50 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>HLOOKUP(D5,restest!5:31,A5,0)</f>
+        <f>HLOOKUP(E5,restest!5:31,A5,0)</f>
         <v>171</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="7">
         <f>MIN(restest!5:5)</f>
         <v>5.1669053994202498E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>AVERAGE(restest!5:5)</f>
         <v>0.1151937618863183</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>MAX(restest!5:5)</f>
         <v>0.27216118929845201</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>_xlfn.STDEV.S(restest!5:5)</f>
         <v>7.6869428328940601E-2</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
+      <c r="M5" t="str">
+        <f>B5</f>
         <v>Domicile</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+      <c r="N5">
+        <f>C5</f>
         <v>171</v>
       </c>
-      <c r="N5">
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>-1.2867694898547399</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="3"/>
-        <v>-1.2867694898547399</v>
-      </c>
-      <c r="O5">
+        <v>-0.93857103872273295</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="4"/>
-        <v>-0.93857103872273295</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
         <v>-0.56517380593378974</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>23</v>
       </c>
@@ -21818,47 +21862,50 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>HLOOKUP(D6,restest!6:32,A6,0)</f>
+        <f>HLOOKUP(E6,restest!6:32,A6,0)</f>
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7">
         <f>MIN(restest!6:6)</f>
         <v>9.1090621034912495E-6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>AVERAGE(restest!6:6)</f>
         <v>1.640494385698077E-5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>MAX(restest!6:6)</f>
         <v>2.5593267629388202E-5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>_xlfn.STDEV.S(restest!6:6)</f>
         <v>3.5548687053563094E-6</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
+      <c r="M6" t="str">
+        <f>B6</f>
         <v>Gestion</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+      <c r="N6">
+        <f>C6</f>
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>-5.0405263369948656</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="3"/>
-        <v>-5.0405263369948656</v>
-      </c>
-      <c r="O6">
+        <v>-4.7850252515714518</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="4"/>
-        <v>-4.7850252515714518</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
         <v>-4.5918742618730555</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>22</v>
       </c>
@@ -21866,47 +21913,50 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>HLOOKUP(D7,restest!7:33,A7,0)</f>
+        <f>HLOOKUP(E7,restest!7:33,A7,0)</f>
         <v>119</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="7">
         <f>MIN(restest!7:7)</f>
         <v>3.1872726667162898E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>AVERAGE(restest!7:7)</f>
         <v>4.9093809767590958E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>MAX(restest!7:7)</f>
         <v>8.2057444350076697E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>_xlfn.STDEV.S(restest!7:7)</f>
         <v>1.5337375266139486E-2</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
+      <c r="M7" t="str">
+        <f>B7</f>
         <v>Gestion - Accueil Telephonique</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
+      <c r="N7">
+        <f>C7</f>
         <v>119</v>
       </c>
-      <c r="N7">
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>-1.4965807816518064</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="3"/>
-        <v>-1.4965807816518064</v>
-      </c>
-      <c r="O7">
+        <v>-1.3089732645625471</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="4"/>
-        <v>-1.3089732645625471</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
         <v>-1.0858820131056768</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -21914,47 +21964,50 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>HLOOKUP(D8,restest!8:34,A8,0)</f>
+        <f>HLOOKUP(E8,restest!8:34,A8,0)</f>
         <v>282</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="7">
         <f>MIN(restest!8:8)</f>
         <v>2.9967372642233799E-3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>AVERAGE(restest!8:8)</f>
         <v>3.6953481619000838E-3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>MAX(restest!8:8)</f>
         <v>5.15841360719112E-3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>_xlfn.STDEV.S(restest!8:8)</f>
         <v>5.5619376232897801E-4</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
+      <c r="M8" t="str">
+        <f>B8</f>
         <v>Gestion Assurances</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+      <c r="N8">
+        <f>C8</f>
         <v>282</v>
       </c>
-      <c r="N8">
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>-2.5233513316956109</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="3"/>
-        <v>-2.5233513316956109</v>
-      </c>
-      <c r="O8">
+        <v>-2.4323446377376761</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="4"/>
-        <v>-2.4323446377376761</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
         <v>-2.2874838385999365</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>20</v>
       </c>
@@ -21962,47 +22015,50 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>HLOOKUP(D9,restest!9:35,A9,0)</f>
+        <f>HLOOKUP(E9,restest!9:35,A9,0)</f>
         <v>97</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="7">
         <f>MIN(restest!9:9)</f>
         <v>1.3451573851438201E-3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>AVERAGE(restest!9:9)</f>
         <v>1.5687343832065546E-3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>MAX(restest!9:9)</f>
         <v>2.2665661169799E-3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>_xlfn.STDEV.S(restest!9:9)</f>
         <v>1.9789254494738395E-4</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
+      <c r="M9" t="str">
+        <f>B9</f>
         <v>Gestion Clients</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="N9">
+        <f>C9</f>
         <v>97</v>
       </c>
-      <c r="N9">
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>-2.8712268996758987</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>-2.8712268996758987</v>
-      </c>
-      <c r="O9">
+        <v>-2.8044505845667445</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="4"/>
-        <v>-2.8044505845667445</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
         <v>-2.6446316078116814</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>19</v>
       </c>
@@ -22010,47 +22066,50 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>HLOOKUP(D10,restest!10:36,A10,0)</f>
+        <f>HLOOKUP(E10,restest!10:36,A10,0)</f>
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7">
         <f>MIN(restest!10:10)</f>
         <v>1.7089312640233199E-4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>AVERAGE(restest!10:10)</f>
         <v>2.0837995352872217E-4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>MAX(restest!10:10)</f>
         <v>3.67393968541107E-4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>_xlfn.STDEV.S(restest!10:10)</f>
         <v>4.0589387696894351E-5</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
+      <c r="M10" t="str">
+        <f>B10</f>
         <v>Gestion DZ</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="N10">
+        <f>C10</f>
         <v>15</v>
       </c>
-      <c r="N10">
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>-3.7672754049537591</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="3"/>
-        <v>-3.7672754049537591</v>
-      </c>
-      <c r="O10">
+        <v>-3.6811440631585635</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="4"/>
-        <v>-3.6811440631585635</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
         <v>-3.4348679777275875</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>18</v>
       </c>
@@ -22058,47 +22117,50 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>HLOOKUP(D11,restest!11:37,A11,0)</f>
+        <f>HLOOKUP(E11,restest!11:37,A11,0)</f>
         <v>247</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="7">
         <f>MIN(restest!11:11)</f>
         <v>1.1681259036845E-3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>AVERAGE(restest!11:11)</f>
         <v>1.3643992254311168E-3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f>MAX(restest!11:11)</f>
         <v>1.9659702060476798E-3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>_xlfn.STDEV.S(restest!11:11)</f>
         <v>1.4962612381471166E-4</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
+      <c r="M11" t="str">
+        <f>B11</f>
         <v>Gestion Relation Clienteles</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="N11">
+        <f>C11</f>
         <v>247</v>
       </c>
-      <c r="N11">
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>-2.9325103452984602</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="3"/>
-        <v>-2.9325103452984602</v>
-      </c>
-      <c r="O11">
+        <v>-2.8650585358133704</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="4"/>
-        <v>-2.8650585358133704</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
         <v>-2.706423068114836</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>17</v>
       </c>
@@ -22106,47 +22168,50 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>HLOOKUP(D12,restest!12:38,A12,0)</f>
+        <f>HLOOKUP(E12,restest!12:38,A12,0)</f>
         <v>31</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7">
         <f>MIN(restest!12:12)</f>
         <v>7.8954192242878897E-6</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>AVERAGE(restest!12:12)</f>
         <v>1.1482897615786944E-5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>MAX(restest!12:12)</f>
         <v>2.65454572375464E-5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>_xlfn.STDEV.S(restest!12:12)</f>
         <v>2.8561190580647675E-6</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
+      <c r="M12" t="str">
+        <f>B12</f>
         <v>Gestion Renault</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="N12">
+        <f>C12</f>
         <v>31</v>
       </c>
-      <c r="N12">
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>-5.1026248052426144</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>-5.1026248052426144</v>
-      </c>
-      <c r="O12">
+        <v>-4.9399485074295306</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="4"/>
-        <v>-4.9399485074295306</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
         <v>-4.5760097896660863</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>16</v>
       </c>
@@ -22154,47 +22219,50 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>HLOOKUP(D13,restest!13:39,A13,0)</f>
+        <f>HLOOKUP(E13,restest!13:39,A13,0)</f>
         <v>296</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7">
         <f>MIN(restest!13:13)</f>
         <v>5.1908798044928801E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>AVERAGE(restest!13:13)</f>
         <v>5.6808756927126565E-3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f>MAX(restest!13:13)</f>
         <v>8.0511333698288397E-3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>_xlfn.STDEV.S(restest!13:13)</f>
         <v>4.5435486446077479E-4</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
+      <c r="M13" t="str">
+        <f>B13</f>
         <v>Japon</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="N13">
+        <f>C13</f>
         <v>296</v>
       </c>
-      <c r="N13">
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>-2.2847590271507863</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="3"/>
-        <v>-2.2847590271507863</v>
-      </c>
-      <c r="O13">
+        <v>-2.2455847137256639</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="4"/>
-        <v>-2.2455847137256639</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
         <v>-2.094142979058716</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>15</v>
       </c>
@@ -22202,47 +22270,50 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>HLOOKUP(D14,restest!14:40,A14,0)</f>
+        <f>HLOOKUP(E14,restest!14:40,A14,0)</f>
         <v>17</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7">
         <f>MIN(restest!14:14)</f>
         <v>2.2108809035488301E-4</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>AVERAGE(restest!14:14)</f>
         <v>2.5605886458053979E-4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f>MAX(restest!14:14)</f>
         <v>3.60635623494605E-4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>_xlfn.STDEV.S(restest!14:14)</f>
         <v>3.7722354873102139E-5</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
+      <c r="M14" t="str">
+        <f>B14</f>
         <v>Manager</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="N14">
+        <f>C14</f>
         <v>17</v>
       </c>
-      <c r="N14">
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>-3.6554346515075125</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>-3.6554346515075125</v>
-      </c>
-      <c r="O14">
+        <v>-3.5916601845951672</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="4"/>
-        <v>-3.5916601845951672</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
         <v>-3.4429313759968867</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22250,47 +22321,50 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>HLOOKUP(D15,restest!15:41,A15,0)</f>
+        <f>HLOOKUP(E15,restest!15:41,A15,0)</f>
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7">
         <f>MIN(restest!15:15)</f>
         <v>3.8484648595623699E-3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>AVERAGE(restest!15:15)</f>
         <v>4.6991079041143599E-3</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f>MAX(restest!15:15)</f>
         <v>6.9034649515319103E-3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>_xlfn.STDEV.S(restest!15:15)</f>
         <v>5.7613132435078106E-4</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
+      <c r="M15" t="str">
+        <f>B15</f>
         <v>Mécanicien</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
+      <c r="N15">
+        <f>C15</f>
         <v>6</v>
       </c>
-      <c r="N15">
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>-2.4147124746411599</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="3"/>
-        <v>-2.4147124746411599</v>
-      </c>
-      <c r="O15">
+        <v>-2.3279845822970318</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="4"/>
-        <v>-2.3279845822970318</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
         <v>-2.160932875694034</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -22298,47 +22372,50 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>HLOOKUP(D16,restest!16:42,A16,0)</f>
+        <f>HLOOKUP(E16,restest!16:42,A16,0)</f>
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7">
         <f>MIN(restest!16:16)</f>
         <v>5.6559225808685797E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>AVERAGE(restest!16:16)</f>
         <v>0.1055382658201862</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f>MAX(restest!16:16)</f>
         <v>0.218482650585126</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>_xlfn.STDEV.S(restest!16:16)</f>
         <v>5.6026649902646733E-2</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
+      <c r="M16" t="str">
+        <f>B16</f>
         <v>Médical</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
+      <c r="N16">
+        <f>C16</f>
         <v>7</v>
       </c>
-      <c r="N16">
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>-1.2474965438596162</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="3"/>
-        <v>-1.2474965438596162</v>
-      </c>
-      <c r="O16">
+        <v>-0.97659004632443869</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="4"/>
-        <v>-0.97659004632443869</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
         <v>-0.66058304406792334</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>12</v>
       </c>
@@ -22346,47 +22423,50 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>HLOOKUP(D17,restest!17:43,A17,0)</f>
+        <f>HLOOKUP(E17,restest!17:43,A17,0)</f>
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
         <f>MIN(restest!17:17)</f>
         <v>3.1696188990696497E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f>AVERAGE(restest!17:17)</f>
         <v>6.2859976163867917E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f>MAX(restest!17:17)</f>
         <v>0.63542885549005801</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>_xlfn.STDEV.S(restest!17:17)</f>
         <v>7.8021476982188462E-2</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
+      <c r="M17" t="str">
+        <f>B17</f>
         <v>Nuit</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
+      <c r="N17">
+        <f>C17</f>
         <v>6</v>
       </c>
-      <c r="N17">
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>-1.4989929522872318</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="3"/>
-        <v>-1.4989929522872318</v>
-      </c>
-      <c r="O17">
+        <v>-1.2016257880003127</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="4"/>
-        <v>-1.2016257880003127</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="5"/>
         <v>-0.19693306729363708</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>11</v>
       </c>
@@ -22394,47 +22474,50 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>HLOOKUP(D18,restest!18:44,A18,0)</f>
+        <f>HLOOKUP(E18,restest!18:44,A18,0)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7">
         <f>MIN(restest!18:18)</f>
         <v>6.11177044090231E-5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f>AVERAGE(restest!18:18)</f>
         <v>9.3289784056795055E-5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f>MAX(restest!18:18)</f>
         <v>1.4920377009664801E-4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>_xlfn.STDEV.S(restest!18:18)</f>
         <v>2.1292303847103967E-5</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
+      <c r="M18" t="str">
+        <f>B18</f>
         <v>Prestataires</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
+      <c r="N18">
+        <f>C18</f>
         <v>6</v>
       </c>
-      <c r="N18">
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>-4.213832966297824</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="3"/>
-        <v>-4.213832966297824</v>
-      </c>
-      <c r="O18">
+        <v>-4.0301659122093438</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="4"/>
-        <v>-4.0301659122093438</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
         <v>-3.8262202029257888</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -22442,47 +22525,50 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>HLOOKUP(D19,restest!19:45,A19,0)</f>
+        <f>HLOOKUP(E19,restest!19:45,A19,0)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7">
         <f>MIN(restest!19:19)</f>
         <v>3.2805150927341202E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f>AVERAGE(restest!19:19)</f>
         <v>4.7959774500655389E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f>MAX(restest!19:19)</f>
         <v>8.0661839021626699E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>_xlfn.STDEV.S(restest!19:19)</f>
         <v>1.3308352245615973E-2</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
+      <c r="M19" t="str">
+        <f>B19</f>
         <v>RENAULT</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
+      <c r="N19">
+        <f>C19</f>
         <v>12</v>
       </c>
-      <c r="N19">
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>-1.4840579598344161</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="3"/>
-        <v>-1.4840579598344161</v>
-      </c>
-      <c r="O19">
+        <v>-1.3191228675529902</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="4"/>
-        <v>-1.3191228675529902</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="5"/>
         <v>-1.0933318806690904</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>9</v>
       </c>
@@ -22490,47 +22576,50 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>HLOOKUP(D20,restest!20:46,A20,0)</f>
+        <f>HLOOKUP(E20,restest!20:46,A20,0)</f>
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7">
         <f>MIN(restest!20:20)</f>
         <v>2.3659928837326101E-2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>AVERAGE(restest!20:20)</f>
         <v>3.4697512173737247E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f>MAX(restest!20:20)</f>
         <v>5.9796900407525798E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>_xlfn.STDEV.S(restest!20:20)</f>
         <v>1.0993088717864008E-2</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
+      <c r="M20" t="str">
+        <f>B20</f>
         <v>RTC</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
+      <c r="N20">
+        <f>C20</f>
         <v>6</v>
       </c>
-      <c r="N20">
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>-1.6259865659465951</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="3"/>
-        <v>-1.6259865659465951</v>
-      </c>
-      <c r="O20">
+        <v>-1.4597016631904305</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="4"/>
-        <v>-1.4597016631904305</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="5"/>
         <v>-1.2233213272289101</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -22538,47 +22627,50 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>HLOOKUP(D21,restest!21:47,A21,0)</f>
+        <f>HLOOKUP(E21,restest!21:47,A21,0)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="7">
         <f>MIN(restest!21:21)</f>
         <v>3.8232394469180299E-3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>AVERAGE(restest!21:21)</f>
         <v>4.8522093684344398E-3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f>MAX(restest!21:21)</f>
         <v>6.6498652560263403E-3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>_xlfn.STDEV.S(restest!21:21)</f>
         <v>5.7958195912047642E-4</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M21" t="str">
+        <f>B21</f>
         <v>Regulation Medicale</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
+      <c r="N21">
+        <f>C21</f>
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>-2.417568501557557</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="3"/>
-        <v>-2.417568501557557</v>
-      </c>
-      <c r="O21">
+        <v>-2.314060467988067</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="4"/>
-        <v>-2.314060467988067</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
         <v>-2.1771871545701429</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -22586,47 +22678,50 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <f>HLOOKUP(D22,restest!22:48,A22,0)</f>
+        <f>HLOOKUP(E22,restest!22:48,A22,0)</f>
         <v>297</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="7">
         <f>MIN(restest!22:22)</f>
         <v>5.05503202384613E-3</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>AVERAGE(restest!22:22)</f>
         <v>6.9823177147594088E-3</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f>MAX(restest!22:22)</f>
         <v>1.0644030456779301E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>_xlfn.STDEV.S(restest!22:22)</f>
         <v>1.6575020123387033E-3</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
+      <c r="M22" t="str">
+        <f>B22</f>
         <v>SAP</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
+      <c r="N22">
+        <f>C22</f>
         <v>297</v>
       </c>
-      <c r="N22">
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>-2.2962760887899711</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="3"/>
-        <v>-2.2962760887899711</v>
-      </c>
-      <c r="O22">
+        <v>-2.1560003934726413</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="4"/>
-        <v>-2.1560003934726413</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
         <v>-1.972893891430658</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -22634,47 +22729,50 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <f>HLOOKUP(D23,restest!23:49,A23,0)</f>
+        <f>HLOOKUP(E23,restest!23:49,A23,0)</f>
         <v>298</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="7">
         <f>MIN(restest!23:23)</f>
         <v>9.0784303345674305E-2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>AVERAGE(restest!23:23)</f>
         <v>0.17540527583194737</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f>MAX(restest!23:23)</f>
         <v>0.39054510171009099</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>_xlfn.STDEV.S(restest!23:23)</f>
         <v>0.10085283169807978</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
+      <c r="M23" t="str">
+        <f>B23</f>
         <v>Services</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
+      <c r="N23">
+        <f>C23</f>
         <v>298</v>
       </c>
-      <c r="N23">
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>-1.0419892347350044</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="3"/>
-        <v>-1.0419892347350044</v>
-      </c>
-      <c r="O23">
+        <v>-0.75595734808375492</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="4"/>
-        <v>-0.75595734808375492</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
         <v>-0.40832880482699746</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -22682,47 +22780,50 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <f>HLOOKUP(D24,restest!24:50,A24,0)</f>
+        <f>HLOOKUP(E24,restest!24:50,A24,0)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7">
         <f>MIN(restest!24:24)</f>
         <v>6.0201766898399303</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>AVERAGE(restest!24:24)</f>
         <v>8329.147693318595</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f>MAX(restest!24:24)</f>
         <v>244226.485288294</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>_xlfn.STDEV.S(restest!24:24)</f>
         <v>36114.888335351898</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
+      <c r="M24" t="str">
+        <f>B24</f>
         <v>Tech. Axa</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
+      <c r="N24">
+        <f>C24</f>
         <v>5</v>
       </c>
-      <c r="N24">
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0.77960923781868863</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="3"/>
-        <v>0.77960923781868863</v>
-      </c>
-      <c r="O24">
+        <v>3.920600563108291</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="4"/>
-        <v>3.920600563108291</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
         <v>5.3877927594894617</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>4</v>
       </c>
@@ -22730,47 +22831,50 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <f>HLOOKUP(D25,restest!25:51,A25,0)</f>
+        <f>HLOOKUP(E25,restest!25:51,A25,0)</f>
         <v>298</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7">
         <f>MIN(restest!25:25)</f>
         <v>0.111366403831309</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f>AVERAGE(restest!25:25)</f>
         <v>0.20476889600260192</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f>MAX(restest!25:25)</f>
         <v>0.362741630137286</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>_xlfn.STDEV.S(restest!25:25)</f>
         <v>7.4068258334055961E-2</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
+      <c r="M25" t="str">
+        <f>B25</f>
         <v>Tech. Inter</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
+      <c r="N25">
+        <f>C25</f>
         <v>298</v>
       </c>
-      <c r="N25">
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>-0.9532458040568097</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="3"/>
-        <v>-0.9532458040568097</v>
-      </c>
-      <c r="O25">
+        <v>-0.68873601117435634</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="4"/>
-        <v>-0.68873601117435634</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
         <v>-0.44040259964040512</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -22778,47 +22882,50 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <f>HLOOKUP(D26,restest!26:52,A26,0)</f>
+        <f>HLOOKUP(E26,restest!26:52,A26,0)</f>
         <v>11</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7">
         <f>MIN(restest!26:26)</f>
         <v>0.17309093837166201</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>AVERAGE(restest!26:26)</f>
         <v>0.40952740330200815</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f>MAX(restest!26:26)</f>
         <v>0.96964118358439999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>_xlfn.STDEV.S(restest!26:26)</f>
         <v>0.25182313802263201</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
+      <c r="M26" t="str">
+        <f>B26</f>
         <v>Tech. Total</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
+      <c r="N26">
+        <f>C26</f>
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>-0.76172566764277805</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="3"/>
-        <v>-0.76172566764277805</v>
-      </c>
-      <c r="O26">
+        <v>-0.38771703235371829</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="4"/>
-        <v>-0.38771703235371829</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
         <v>-1.3388946990069811E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -22826,241 +22933,1052 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <f>HLOOKUP(D27,restest!27:53,A27,0)</f>
+        <f>HLOOKUP(E27,restest!27:53,A27,0)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7">
         <f>MIN(restest!27:27)</f>
         <v>8810047.1958357207</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f>AVERAGE(restest!27:27)</f>
         <v>7.6919112676094254E+28</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f>MAX(restest!27:27)</f>
         <v>3.4362962254205101E+30</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>_xlfn.STDEV.S(restest!27:27)</f>
         <v>4.5080421281107657E+29</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
+      <c r="M27" t="str">
+        <f>B27</f>
         <v>Téléphonie</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
+      <c r="N27">
+        <f>C27</f>
         <v>1</v>
       </c>
-      <c r="N27">
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>6.9449782349541724</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="3"/>
-        <v>6.9449782349541724</v>
-      </c>
-      <c r="O27">
+        <v>28.886034265658765</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="4"/>
-        <v>28.886034265658765</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
         <v>30.536090595066156</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D28" s="7">
-        <f>SUM(D2:D26)</f>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="E28" s="7">
+        <f>SUM(E2:E26)</f>
         <v>11.045603129515035</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>319</v>
       </c>
-      <c r="D30"/>
+      <c r="E30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" s="8"/>
+      <c r="E31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" s="8"/>
+      <c r="E32"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="5">
         <v>5</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" s="8"/>
+      <c r="E33"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="5">
         <v>6</v>
       </c>
       <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" s="8"/>
+      <c r="E34"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="5">
         <v>7</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" s="8"/>
+      <c r="E35"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
         <v>11</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" s="8"/>
+      <c r="E36"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="5">
         <v>12</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" s="8"/>
+      <c r="E37"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="5">
         <v>15</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" s="8"/>
+      <c r="E38"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="5">
         <v>17</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" s="8"/>
+      <c r="E39"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="5">
         <v>31</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" s="8"/>
+      <c r="E40"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="5">
         <v>97</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" s="8"/>
+      <c r="E41"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="5">
         <v>119</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" s="8"/>
+      <c r="E42"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="5">
         <v>171</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" s="8"/>
+      <c r="E43"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="5">
         <v>247</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" s="8"/>
+      <c r="E44"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="5">
         <v>265</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" s="8"/>
+      <c r="E45"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="5">
         <v>282</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" s="8"/>
+      <c r="E46"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="5">
         <v>296</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" s="8"/>
+      <c r="E47"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="5">
         <v>297</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
+      <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="5">
         <v>298</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
       </c>
+      <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="6">
         <v>26</v>
       </c>
+      <c r="D50" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G27"/>
+  <autoFilter ref="A1:H27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.6182221942721693</v>
+      </c>
+      <c r="C2">
+        <v>4207</v>
+      </c>
+      <c r="D2" s="11">
+        <f>B2*C2</f>
+        <v>40463.860771303014</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.5836027527158894E-5</v>
+      </c>
+      <c r="C3">
+        <v>3739</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D27" si="0">B3*C3</f>
+        <v>0.28355090692404711</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.1765259420815901E-5</v>
+      </c>
+      <c r="C4">
+        <v>3582</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.14960315924536255</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.3672221036134699E-2</v>
+      </c>
+      <c r="C5">
+        <v>9744</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>522.98212177609651</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.6621391770106298E-6</v>
+      </c>
+      <c r="C6">
+        <v>9547</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2244442722920483E-2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.5441249037237298E-2</v>
+      </c>
+      <c r="C7">
+        <v>9277</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>328.78846731845039</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.2709567356037201E-3</v>
+      </c>
+      <c r="C8">
+        <v>8237</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>26.942870631167843</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.4299475728536701E-3</v>
+      </c>
+      <c r="C9">
+        <v>6805</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>9.7307932332692246</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.7957312561223601E-4</v>
+      </c>
+      <c r="C10">
+        <v>6368</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1435216638987189</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.04727909562158E-3</v>
+      </c>
+      <c r="C11">
+        <v>6482</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7884630978190819</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.13621155093513E-5</v>
+      </c>
+      <c r="C12">
+        <v>9262</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29047591384761173</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.1609972389955201E-3</v>
+      </c>
+      <c r="C13">
+        <v>9651</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>49.808784353545761</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.09145172587659E-4</v>
+      </c>
+      <c r="C14">
+        <v>8136</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7016051241731935</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4.2872141366886597E-3</v>
+      </c>
+      <c r="C15">
+        <v>5401</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>23.155243552255452</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5.8247332424601603E-2</v>
+      </c>
+      <c r="C16">
+        <v>9554</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>556.49501398464372</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.3348123645077499E-2</v>
+      </c>
+      <c r="C17">
+        <v>9603</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>320.24203136367925</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6.9806251558758594E-5</v>
+      </c>
+      <c r="C18">
+        <v>3115</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21744647360553301</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.2118466335734903E-2</v>
+      </c>
+      <c r="C19">
+        <v>9730</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>312.51267744670059</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.4957463013496599E-2</v>
+      </c>
+      <c r="C20">
+        <v>4226</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>105.47023869503663</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.9299283533143301E-3</v>
+      </c>
+      <c r="C21">
+        <v>9203</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>36.167130635551779</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.4925957185450501E-3</v>
+      </c>
+      <c r="C22">
+        <v>9546</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>52.432318729231049</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9.3208468113667495E-2</v>
+      </c>
+      <c r="C23">
+        <v>9742</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>908.03689636334877</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>49.866656546613001</v>
+      </c>
+      <c r="C24">
+        <v>9448</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>471140.17105239962</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.116857346691376</v>
+      </c>
+      <c r="C25">
+        <v>9779</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>1142.7479932949659</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.192323905133122</v>
+      </c>
+      <c r="C26">
+        <v>9023</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>1735.3385960161597</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>565.31800963751198</v>
+      </c>
+      <c r="C27">
+        <v>9603</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>5428748.8465490276</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>SUM(B2:B27)</f>
+        <v>625.46829902277057</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="1">SUM(C2:C27)</f>
+        <v>203010</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="1"/>
+        <v>5946494.3964609066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>